--- a/表格模版/德邦空派.xlsx
+++ b/表格模版/德邦空派.xlsx
@@ -4,17 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27080" windowHeight="11240"/>
+    <workbookView windowWidth="27600" windowHeight="13480"/>
   </bookViews>
   <sheets>
     <sheet name="箱单发票" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">箱单发票!$A$8:$R$10</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>单号 Courier number</t>
   </si>
@@ -22,10 +29,19 @@
     <t>日期  Date:</t>
   </si>
   <si>
+    <t>2024.12.02</t>
+  </si>
+  <si>
     <t>公司名  COMPANY:</t>
   </si>
   <si>
     <t>地址 ADRESS：</t>
+  </si>
+  <si>
+    <t>TMB8，
+27505 SW 132nd AVE，
+United States of America (USA)，
+HOMESTEAD，FL，33032-8597</t>
   </si>
   <si>
     <t>收件人姓名：（私人地址需填写）:</t>
@@ -95,12 +111,6 @@
   </si>
   <si>
     <t>H(cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>总计</t>
@@ -110,15 +120,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$$-409]#,##0.00;[Red][$$-409]#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="\$#,##0.00;\-\$#,##0.00"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +159,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -522,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -534,7 +537,9 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -561,6 +566,219 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -576,306 +794,11 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -992,328 +915,239 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="28">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="27">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="29">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,11 +1206,6 @@
     <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <mruColors>
-      <color rgb="00373C64"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1672,562 +1501,275 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:R32"/>
+  <dimension ref="B1:R15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7788461538462" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="3" customWidth="1"/>
-    <col min="12" max="14" width="9.125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="3" customWidth="1"/>
+    <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="12.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
     <col min="16" max="18" width="11.25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="24" width="9" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="19" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="10.5" customHeight="1"/>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="36.75" customHeight="1" spans="2:18">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="47"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" ht="43.5" customHeight="1" spans="2:18">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="40">
-        <f ca="1">TODAY()</f>
-        <v>45667</v>
-      </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="48"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="20"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" ht="97" customHeight="1" spans="2:18">
-      <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>3</v>
+      <c r="G5" s="21"/>
+      <c r="H5" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="49"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" ht="48.75" customHeight="1" spans="2:18">
-      <c r="B6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="49"/>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" ht="27.95" customHeight="1" spans="2:18">
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="D7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="E7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="F7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="G7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="H7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="I7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="J7" s="22" t="s">
         <v>16</v>
       </c>
+      <c r="K7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="50" t="s">
+      <c r="N7" s="21"/>
+      <c r="O7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="51" t="s">
+      <c r="P7" s="10" t="s">
         <v>20</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1" spans="2:18">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="34" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="53"/>
+      <c r="M8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
     </row>
     <row r="9" ht="75" customHeight="1" spans="2:18">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="54" t="s">
-        <v>25</v>
-      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
     </row>
-    <row r="10" ht="75" customHeight="1" spans="2:18">
-      <c r="B10" s="18"/>
+    <row r="10" ht="36" customHeight="1" spans="2:18">
+      <c r="B10" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="54" t="s">
-        <v>25</v>
-      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19">
+        <f>SUM(F9:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19">
+        <f>SUM(H9:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19">
+        <f>SUM(K9:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19">
+        <f>SUM(O9:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="35"/>
     </row>
-    <row r="11" ht="75" customHeight="1" spans="2:18">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="54" t="s">
-        <v>25</v>
-      </c>
+    <row r="11" ht="36" customHeight="1"/>
+    <row r="12" ht="36" customHeight="1" spans="8:10">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
-    <row r="12" ht="29.1" customHeight="1" spans="2:18">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="54"/>
+    <row r="13" ht="36" customHeight="1" spans="8:10">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
-    <row r="13" ht="29.1" customHeight="1" spans="2:18">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="57"/>
+    <row r="14" ht="33" customHeight="1" spans="2:10">
+      <c r="B14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
-    <row r="14" ht="27.75" customHeight="1" spans="2:18">
-      <c r="B14" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="28">
-        <f>SUM(C9,)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="28">
-        <f>SUM(F9,)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29">
-        <f>SUM(H9,)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="28">
-        <f>SUM(K9,)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="39">
-        <f>SUM(O9,)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="58"/>
-    </row>
-    <row r="15" ht="27.75" customHeight="1"/>
-    <row r="16" ht="27.75" customHeight="1" spans="6:15">
-      <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" ht="27.75" customHeight="1" spans="2:15">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+    <row r="15" ht="33" customHeight="1" spans="2:10">
+      <c r="B15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A8:R10">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="25">
     <mergeCell ref="B3:R3"/>
     <mergeCell ref="C4:G4"/>
